--- a/src/main/webapp/WEB-INF/template/合同导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/合同导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1工作\供应链\2供应链二期（熙耘供应链）\设计-数据准备\熙耘导入模版20190713\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C1AC8-CF41-4845-9E94-E4BA3308BA4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF32530-9EA2-4EAE-93B3-57C6AD7DA5FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +225,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,35 +518,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +560,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -620,13 +630,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -649,13 +659,13 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -678,13 +688,13 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -707,13 +717,13 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -736,13 +746,13 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -765,13 +775,13 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -794,13 +804,13 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -823,13 +833,13 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -852,13 +862,13 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -881,13 +891,13 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -910,13 +920,13 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -939,13 +949,13 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -968,13 +978,13 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -997,13 +1007,13 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1026,13 +1036,13 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1055,13 +1065,13 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1084,13 +1094,13 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1113,13 +1123,13 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1142,13 +1152,13 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1171,13 +1181,13 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1200,13 +1210,13 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1229,13 +1239,13 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1258,13 +1268,13 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1287,13 +1297,13 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1316,13 +1326,13 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1345,13 +1355,13 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1374,13 +1384,13 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1403,13 +1413,13 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1432,13 +1442,13 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1461,13 +1471,13 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1490,13 +1500,13 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1519,13 +1529,13 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1548,13 +1558,13 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1577,13 +1587,13 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1606,13 +1616,13 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1635,13 +1645,13 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1664,13 +1674,13 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1693,13 +1703,13 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1722,13 +1732,13 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1751,13 +1761,13 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1780,13 +1790,13 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1809,13 +1819,13 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1838,13 +1848,13 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1867,13 +1877,13 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1896,13 +1906,13 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1925,13 +1935,13 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1954,13 +1964,13 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1983,13 +1993,13 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2012,13 +2022,13 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2041,13 +2051,13 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2070,13 +2080,13 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2099,13 +2109,13 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2128,13 +2138,13 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2157,13 +2167,13 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2186,13 +2196,13 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2215,13 +2225,13 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2244,13 +2254,13 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2273,13 +2283,13 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2302,13 +2312,13 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2331,13 +2341,13 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2360,13 +2370,13 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2389,13 +2399,13 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2418,13 +2428,13 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2447,13 +2457,13 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2476,13 +2486,13 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2505,13 +2515,13 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -2534,13 +2544,13 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2563,13 +2573,13 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2592,13 +2602,13 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2621,13 +2631,13 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2650,13 +2660,13 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2679,13 +2689,13 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2708,13 +2718,13 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2737,13 +2747,13 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2766,13 +2776,13 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2795,13 +2805,13 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2824,13 +2834,13 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2853,13 +2863,13 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2882,13 +2892,13 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2911,13 +2921,13 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2940,13 +2950,13 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2969,13 +2979,13 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2998,13 +3008,13 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3027,13 +3037,13 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -3056,13 +3066,13 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -3085,13 +3095,13 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -3114,13 +3124,13 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3143,13 +3153,13 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3172,13 +3182,13 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -3201,13 +3211,13 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -3230,13 +3240,13 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3259,13 +3269,13 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3288,13 +3298,13 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3317,13 +3327,13 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -3346,13 +3356,13 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3375,13 +3385,13 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3404,13 +3414,13 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3433,13 +3443,13 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3462,13 +3472,13 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3491,13 +3501,13 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3540,5 +3550,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/合同导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/合同导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF32530-9EA2-4EAE-93B3-57C6AD7DA5FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D4276-AC1A-4397-8F1D-7EC93CD2419B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>合同名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,16 @@
   </si>
   <si>
     <t>计量方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同费用</t>
+  </si>
+  <si>
+    <t>平均毛利率</t>
+  </si>
+  <si>
+    <t>合同属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,38 +526,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,44 +606,53 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -658,8 +680,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -687,8 +712,11 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -716,8 +744,11 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -745,8 +776,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -774,8 +808,11 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -803,8 +840,11 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -832,8 +872,11 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -861,8 +904,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -890,8 +936,11 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -919,8 +968,11 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -948,8 +1000,11 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -977,8 +1032,11 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1006,8 +1064,11 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1035,8 +1096,11 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1064,8 +1128,11 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1093,8 +1160,11 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1122,8 +1192,11 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1151,8 +1224,11 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1180,8 +1256,11 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1209,8 +1288,11 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1238,8 +1320,11 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1267,8 +1352,11 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1296,8 +1384,11 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1325,8 +1416,11 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1354,8 +1448,11 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1383,8 +1480,11 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1412,8 +1512,11 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1441,8 +1544,11 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1470,8 +1576,11 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1499,8 +1608,11 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1528,8 +1640,11 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1557,8 +1672,11 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1586,8 +1704,11 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1615,8 +1736,11 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1644,8 +1768,11 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1673,8 +1800,11 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1702,8 +1832,11 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1731,8 +1864,11 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1760,8 +1896,11 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1789,8 +1928,11 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1818,8 +1960,11 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1847,8 +1992,11 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1876,8 +2024,11 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1905,8 +2056,11 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1934,8 +2088,11 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1963,8 +2120,11 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1992,8 +2152,11 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2021,8 +2184,11 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2050,8 +2216,11 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2079,8 +2248,11 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2108,8 +2280,11 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2137,8 +2312,11 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2166,8 +2344,11 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2195,8 +2376,11 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2224,8 +2408,11 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2253,8 +2440,11 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2282,8 +2472,11 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2311,8 +2504,11 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2340,8 +2536,11 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2369,8 +2568,11 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2398,8 +2600,11 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2427,8 +2632,11 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2456,8 +2664,11 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2485,8 +2696,11 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2514,8 +2728,11 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2543,8 +2760,11 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2572,8 +2792,11 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2601,8 +2824,11 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2630,8 +2856,11 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2659,8 +2888,11 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2688,8 +2920,11 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2717,8 +2952,11 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2746,8 +2984,11 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2775,8 +3016,11 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2804,8 +3048,11 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2833,8 +3080,11 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2862,8 +3112,11 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2891,8 +3144,11 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2920,8 +3176,11 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2949,8 +3208,11 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2978,8 +3240,11 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3007,8 +3272,11 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3036,8 +3304,11 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3065,8 +3336,11 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3094,8 +3368,11 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3123,8 +3400,11 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3152,8 +3432,11 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3181,8 +3464,11 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3210,8 +3496,11 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3239,8 +3528,11 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3268,8 +3560,11 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3297,8 +3592,11 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3326,8 +3624,11 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3355,8 +3656,11 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3384,8 +3688,11 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3413,8 +3720,11 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3442,8 +3752,11 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3471,8 +3784,11 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3500,8 +3816,11 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3529,14 +3848,17 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T11" xr:uid="{3B616CFE-012C-4DC3-BDB1-D498EB68F74B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W11" xr:uid="{3B616CFE-012C-4DC3-BDB1-D498EB68F74B}">
       <formula1>"预付100%,货到付款,月结,实销实结,预付15%,分期付款：50%、50%,分期付款：30%、60%、10%,分期付款：20%、60%、20%,分期付款：30%、70%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576 X2:X29" xr:uid="{1E6CF1DA-9172-4E6C-BC73-9036807F9C1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z1048576 AA2:AA29" xr:uid="{1E6CF1DA-9172-4E6C-BC73-9036807F9C1F}">
       <formula1>"甲方,乙方"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O77" xr:uid="{23878C4F-6971-4E56-B30A-A820415BEA70}">
